--- a/HOTEL_정리.xlsx
+++ b/HOTEL_정리.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66B2759-70C0-44ED-89CF-C9D90E79EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NNYG\Desktop\Yoong\Oracle\-Oracle_study1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BD2C9-EEC9-4259-B532-7C42E651DAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="255" windowWidth="18330" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,18 +158,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,12 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -390,9 +389,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -707,22 +712,22 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="19"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
@@ -734,17 +739,17 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -752,11 +757,11 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -770,11 +775,11 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -786,15 +791,15 @@
       <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -802,11 +807,11 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -820,27 +825,27 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
@@ -852,11 +857,11 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -864,11 +869,11 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -876,7 +881,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -888,11 +893,11 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -900,7 +905,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
@@ -913,5 +918,6 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HOTEL_정리.xlsx
+++ b/HOTEL_정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NNYG\Desktop\Yoong\Oracle\-Oracle_study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BD2C9-EEC9-4259-B532-7C42E651DAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0620A53-943C-4901-BCA4-59CFB496A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="255" windowWidth="18330" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>고객 MEMBER</t>
   </si>
@@ -43,9 +43,6 @@
     <t>ROOM_TYPE</t>
   </si>
   <si>
-    <t>멤버쉽</t>
-  </si>
-  <si>
     <t>고객번호</t>
   </si>
   <si>
@@ -152,6 +149,24 @@
   </si>
   <si>
     <t>F_PRICE</t>
+  </si>
+  <si>
+    <t>멤버쉽 할인 MEM_DISCOUNT</t>
+  </si>
+  <si>
+    <t>M_POINT</t>
+  </si>
+  <si>
+    <t>D_RATE</t>
+  </si>
+  <si>
+    <t>ROOM_SERVICE</t>
+  </si>
+  <si>
+    <t>멤버쉽 MEMBERSHIP</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -366,11 +381,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -386,13 +478,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,202 +823,235 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="24"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="I2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="15" t="s">
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="F16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="G18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
